--- a/Phân công và tiến độ công việc/BangPhanCong.xlsx
+++ b/Phân công và tiến độ công việc/BangPhanCong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công và tiến độ công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99A490D-BFC7-4463-B60B-2557C95F97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B351478E-24E3-4FED-8B6E-7E9C82A478EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1477CDB-DF2F-4CE9-AED3-CB02A478139C}"/>
   </bookViews>
@@ -83,31 +83,12 @@
 _ Vẽ database diagram tổng hơp.</t>
   </si>
   <si>
-    <t>_ Đặc tả use case Quản lý thông tin khách hàng, quản lí thông tin lịch chiếu.
-_ Xây dựng Database, insert data vào database chức năng tạo đồ ăn và combo.
-_ Activity và Sequence chức năng thêm, xóa, sửa phim.
-_ Code giao diện và xử lý chức năng quản lí thông tin nhân viên.</t>
-  </si>
-  <si>
     <t>_ Đặc tả use case Đăng nhập, Quản lý thông tin phim.
 _ Xây dựng Database, insert data vào database chức năng chọn phòng.
 _ Activity và Sequence chức năng tạo đồ ăn và combo.
 _ Activity và Sequence chức năng quản lí thông tin nhân viên.
 _ Activity và Sequence chức năng quản lí thông tin khách hàng.
 _ Viết yêu cầu chức năng.</t>
-  </si>
-  <si>
-    <t>_ Phân chia và tiến độ công việc.
-_ Tổng hợp SRS.
-_ Viết tóm tắt mục tiêu, đặc tả chức năng.
-_ Đặc tả use case đặt vé online, bán vé tại quầy, tạo đồ ăn và combo.
-_ Activity và Sequence chức năng Đăng kí, đăng nhập, đổi mật khẩu, quên mật khẩu.
-_ Xây dựng Database, insert data vào database chức năng xem lịch chiếu
-_ Code giao diện và xử lý chức năng chọn chỗ ngồi.
-_ Code giao diện và xử lý chức năng chọn đồ ăn.
-_ Code giao diện và xử lý chức năng tạo đồ ăn và combo.
-_ Code giao diện và xử lý chức năng quản lí giỏ hàng.
-_ Code giao diện và xử lý chức năng hiển thị danh sách phim.</t>
   </si>
   <si>
     <t>_ Đặc tả use case thống kê theo chi nhánh, Use Case quản lý thông tin nhân viên
@@ -136,6 +117,26 @@
 _ Code giao diện và xử lý chức năng quản lí thông tin nhân viên.
 _ Code giao diện và xử lý chức năng quản lí thông tin khách hàng.
 _ Viết Unit test.</t>
+  </si>
+  <si>
+    <t>_ Đặc tả use case Quản lý thông tin khách hàng, quản lí thông tin lịch chiếu.
+_ Xây dựng Database, insert data vào database chức năng tạo đồ ăn và combo.
+_ Activity và Sequence chức năng thêm, xóa, sửa phim.
+_ Code giao diện và xử lý chức năng quản lí thông tin nhân viên.
+_ Code giao diện và xử lý chức năng quản lí thông tin khách hàng.</t>
+  </si>
+  <si>
+    <t>_ Phân chia và tiến độ công việc.
+_ Tổng hợp SRS.
+_ Viết tóm tắt mục tiêu, đặc tả chức năng.
+_ Đặc tả use case đặt vé online, bán vé tại quầy, tạo đồ ăn và combo.
+_ Activity và Sequence chức năng Đăng kí, đăng nhập.
+_ Xây dựng Database, insert data vào database chức năng xem lịch chiếu
+_ Code giao diện và xử lý chức năng chọn chỗ ngồi.
+_ Code giao diện và xử lý chức năng chọn đồ ăn.
+_ Code giao diện và xử lý chức năng tạo đồ ăn và combo.
+_ Code giao diện và xử lý chức năng quản lí giỏ hàng.
+_ Code giao diện và xử lý chức năng hiển thị danh sách phim.</t>
   </si>
 </sst>
 </file>
@@ -210,25 +211,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1BCCB-4BBD-4AA5-AABF-A548EBE4F623}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +562,10 @@
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -573,113 +574,113 @@
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="1:10" ht="155.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="189.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="189.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="207" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="207" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
